--- a/data/trans_orig/Q5409-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Clase-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5768</v>
+        <v>5380</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02958558261570054</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09647593314585665</v>
+        <v>0.08999298956334929</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5612</v>
+        <v>6515</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01976416791009098</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06271309903892776</v>
+        <v>0.07280385013153062</v>
       </c>
     </row>
     <row r="6">
@@ -854,7 +854,7 @@
         <v>58015</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54016</v>
+        <v>54404</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>59784</v>
@@ -863,7 +863,7 @@
         <v>0.9704144173842995</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9035240668541435</v>
+        <v>0.9100070104366507</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>87724</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>83881</v>
+        <v>82978</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>89493</v>
@@ -897,7 +897,7 @@
         <v>0.9802358320899091</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9372869009610733</v>
+        <v>0.9271961498684694</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5334</v>
+        <v>5276</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01281920052281226</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07433154803508364</v>
+        <v>0.07352642765615719</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6438</v>
+        <v>7451</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08968519409703525</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2651921117459367</v>
+        <v>0.3069294863065523</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1250,19 +1250,19 @@
         <v>3097</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8103</v>
+        <v>8477</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03225016798492656</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00949121917405398</v>
+        <v>0.009585122474717486</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08438487029260437</v>
+        <v>0.08827357658288126</v>
       </c>
     </row>
     <row r="13">
@@ -1279,19 +1279,19 @@
         <v>4277</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1626</v>
+        <v>1644</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9172</v>
+        <v>9331</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05960527288969929</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02265690761633622</v>
+        <v>0.02291456193971024</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1278241235702965</v>
+        <v>0.1300408670354171</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5712</v>
+        <v>5672</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04808082501136848</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2353141272969768</v>
+        <v>0.2336544778207544</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1321,19 +1321,19 @@
         <v>5444</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2445</v>
+        <v>2431</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11868</v>
+        <v>11392</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05669200576948121</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02546496004482821</v>
+        <v>0.02531209621458049</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1235823192549628</v>
+        <v>0.1186332656587173</v>
       </c>
     </row>
     <row r="14">
@@ -1350,19 +1350,19 @@
         <v>66557</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61708</v>
+        <v>61383</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70016</v>
+        <v>69400</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9275755265874884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8599907905424844</v>
+        <v>0.8554610313571517</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9757847600530368</v>
+        <v>0.967193164140224</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1371,19 +1371,19 @@
         <v>20931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16096</v>
+        <v>15711</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23214</v>
+        <v>23242</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8622339808915963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6630549573519707</v>
+        <v>0.6471953795406766</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9562955673870311</v>
+        <v>0.9574604889810409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>92</v>
@@ -1392,19 +1392,19 @@
         <v>87489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>80234</v>
+        <v>80225</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>91817</v>
+        <v>91624</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9110578262455922</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8355064556199665</v>
+        <v>0.8354203223873916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9561242331496864</v>
+        <v>0.9541137319222077</v>
       </c>
     </row>
     <row r="15">
@@ -1496,19 +1496,19 @@
         <v>2907</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7921</v>
+        <v>7743</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01117927133509111</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003209734003555859</v>
+        <v>0.003215093938702166</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03045515067010966</v>
+        <v>0.02977092948619532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7276</v>
+        <v>7287</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02340442746424851</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08485254702779388</v>
+        <v>0.08497383827822837</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1538,19 +1538,19 @@
         <v>4914</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1862</v>
+        <v>1900</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11066</v>
+        <v>10967</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01421067550248352</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005385657220809676</v>
+        <v>0.005494750268445228</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03199814731560771</v>
+        <v>0.03171318878242151</v>
       </c>
     </row>
     <row r="17">
@@ -1567,19 +1567,19 @@
         <v>17063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10883</v>
+        <v>10955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26160</v>
+        <v>25709</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06560849535118987</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04184484439319672</v>
+        <v>0.04212444145428734</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1005877976967996</v>
+        <v>0.09885216349053948</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1588,19 +1588,19 @@
         <v>4504</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1163</v>
+        <v>1148</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10409</v>
+        <v>10789</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05251933244005079</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01356800110850681</v>
+        <v>0.01338175447354403</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1213850796318295</v>
+        <v>0.125820019292448</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1609,19 +1609,19 @@
         <v>21567</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14499</v>
+        <v>14199</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31888</v>
+        <v>31027</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06236284821365594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04192554596194413</v>
+        <v>0.04105838013030499</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09220747283247542</v>
+        <v>0.08971931575801484</v>
       </c>
     </row>
     <row r="18">
@@ -1638,19 +1638,19 @@
         <v>240102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>230108</v>
+        <v>230719</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>246725</v>
+        <v>247005</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.923212233313719</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8847839165363772</v>
+        <v>0.8871344697003821</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9486786857129953</v>
+        <v>0.9497559881530134</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>82</v>
@@ -1659,19 +1659,19 @@
         <v>79241</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>72451</v>
+        <v>73266</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>83402</v>
+        <v>83483</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9240762400957007</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8448906555018791</v>
+        <v>0.8543927338802083</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9725983984455211</v>
+        <v>0.9735450894879777</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>337</v>
@@ -1680,19 +1680,19 @@
         <v>319343</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>308849</v>
+        <v>308715</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>327720</v>
+        <v>327757</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9234264762838605</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8930817913238265</v>
+        <v>0.8926938736428744</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9476500052899047</v>
+        <v>0.9477572207147396</v>
       </c>
     </row>
     <row r="19">
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6674</v>
+        <v>5626</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03362745740672507</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1203240660619658</v>
+        <v>0.1014377982342879</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1805,19 +1805,19 @@
         <v>3665</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1185</v>
+        <v>1157</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9830</v>
+        <v>9784</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0380758058396818</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01231585519766254</v>
+        <v>0.01202216516647602</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1021279384444725</v>
+        <v>0.1016472789240621</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1826,19 +1826,19 @@
         <v>5530</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1984</v>
+        <v>1734</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11741</v>
+        <v>11743</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03644954074749318</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01307446347116346</v>
+        <v>0.01142854963606499</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07738682280949273</v>
+        <v>0.07740078953056839</v>
       </c>
     </row>
     <row r="21">
@@ -1855,19 +1855,19 @@
         <v>4645</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1697</v>
+        <v>1826</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9985</v>
+        <v>9788</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08374018581664025</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03058801292288536</v>
+        <v>0.03291466239073568</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1800239908509624</v>
+        <v>0.1764728322237895</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -1876,19 +1876,19 @@
         <v>9105</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4246</v>
+        <v>4208</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16193</v>
+        <v>17186</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09460026738809363</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0441182892359333</v>
+        <v>0.04371700142631853</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1682422402171583</v>
+        <v>0.1785568696737723</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -1897,19 +1897,19 @@
         <v>13750</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7698</v>
+        <v>7436</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>22552</v>
+        <v>22504</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09062994630732424</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05073706118277198</v>
+        <v>0.04901229017611619</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1486445938008297</v>
+        <v>0.1483286655646031</v>
       </c>
     </row>
     <row r="22">
@@ -1926,19 +1926,19 @@
         <v>48955</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43480</v>
+        <v>43221</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52680</v>
+        <v>52709</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8826323567766347</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7839226909448461</v>
+        <v>0.779239422792802</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9497921821531727</v>
+        <v>0.9503020985169285</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -1947,19 +1947,19 @@
         <v>83480</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>75276</v>
+        <v>75737</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89387</v>
+        <v>89822</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8673239267722246</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7820862894764029</v>
+        <v>0.7868807500550038</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9286958172967459</v>
+        <v>0.933212127088658</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>132</v>
@@ -1968,19 +1968,19 @@
         <v>132435</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121882</v>
+        <v>123035</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>139512</v>
+        <v>140335</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8729205129451826</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8033646684476202</v>
+        <v>0.810962047126349</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9195674072383793</v>
+        <v>0.9249908409452934</v>
       </c>
     </row>
     <row r="23">
@@ -2085,19 +2085,19 @@
         <v>13707</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7658</v>
+        <v>7495</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23610</v>
+        <v>23419</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03224685643743677</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01801602417382303</v>
+        <v>0.01763346741958917</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0555431746192477</v>
+        <v>0.05509385223041086</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -2106,19 +2106,19 @@
         <v>13707</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6886</v>
+        <v>7468</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23327</v>
+        <v>22711</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03197268966578994</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01606295851734916</v>
+        <v>0.01742044320208067</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0544102990994002</v>
+        <v>0.05297522428924813</v>
       </c>
     </row>
     <row r="25">
@@ -2148,19 +2148,19 @@
         <v>25479</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16586</v>
+        <v>16351</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36979</v>
+        <v>35927</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05994088137880931</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03901901578331841</v>
+        <v>0.03846703856675848</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08699561460418657</v>
+        <v>0.08452002894893997</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -2169,19 +2169,19 @@
         <v>25479</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16189</v>
+        <v>16502</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>37283</v>
+        <v>38112</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05943125657339058</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03776244202140601</v>
+        <v>0.0384913447468913</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08696499523909602</v>
+        <v>0.08889836954463995</v>
       </c>
     </row>
     <row r="26">
@@ -2211,19 +2211,19 @@
         <v>385884</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>372255</v>
+        <v>373177</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>397565</v>
+        <v>397412</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9078122621837539</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8757503741332883</v>
+        <v>0.8779181986673655</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9352924797273862</v>
+        <v>0.9349323714262523</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>381</v>
@@ -2232,19 +2232,19 @@
         <v>389529</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>375988</v>
+        <v>375688</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>401316</v>
+        <v>400669</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9085960537608195</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8770115149469102</v>
+        <v>0.876312888645972</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9360898508973486</v>
+        <v>0.9345817244099238</v>
       </c>
     </row>
     <row r="27">
@@ -2336,19 +2336,19 @@
         <v>5692</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2046</v>
+        <v>1882</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11607</v>
+        <v>11468</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01134961418407593</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004080152209993717</v>
+        <v>0.003752395088312494</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02314129560865807</v>
+        <v>0.02286448496184377</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -2357,19 +2357,19 @@
         <v>21556</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>13845</v>
+        <v>13532</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>32953</v>
+        <v>33402</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03184804191901163</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02045554639608937</v>
+        <v>0.01999259134630678</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0486861012785144</v>
+        <v>0.0493493636031853</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -2378,19 +2378,19 @@
         <v>27249</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>18986</v>
+        <v>17666</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>41015</v>
+        <v>39525</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02312344337251735</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01611185056267472</v>
+        <v>0.01499146229845133</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03480586808717732</v>
+        <v>0.03354176029862853</v>
       </c>
     </row>
     <row r="29">
@@ -2407,19 +2407,19 @@
         <v>27753</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19930</v>
+        <v>19370</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>39480</v>
+        <v>38831</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05533495971624739</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03973701571342242</v>
+        <v>0.03862072192202406</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07871681759404427</v>
+        <v>0.07742151348430018</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>37</v>
@@ -2428,19 +2428,19 @@
         <v>40255</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28043</v>
+        <v>28881</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>54119</v>
+        <v>54270</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05947501065894207</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04143187769089356</v>
+        <v>0.04267060323449964</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07995810084155357</v>
+        <v>0.08018191468050861</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>68</v>
@@ -2449,19 +2449,19 @@
         <v>68008</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>53013</v>
+        <v>52596</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>85128</v>
+        <v>84095</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05771291051623278</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04498729647112375</v>
+        <v>0.04463374054233502</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07224043549221197</v>
+        <v>0.07136395272425131</v>
       </c>
     </row>
     <row r="30">
@@ -2478,19 +2478,19 @@
         <v>468105</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>455486</v>
+        <v>456828</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>476673</v>
+        <v>477518</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9333154260996767</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9081557518097646</v>
+        <v>0.9108296801826805</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9503984710921113</v>
+        <v>0.9520833001751564</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>605</v>
@@ -2499,19 +2499,19 @@
         <v>615031</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>597285</v>
+        <v>597355</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>630262</v>
+        <v>629313</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9086769474220463</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8824591265233203</v>
+        <v>0.8825617332186121</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9311800422252209</v>
+        <v>0.9297782820646473</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1090</v>
@@ -2520,19 +2520,19 @@
         <v>1083136</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1061818</v>
+        <v>1062931</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1099543</v>
+        <v>1099887</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9191636461112499</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9010727014162683</v>
+        <v>0.9020176387760298</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9330869711047967</v>
+        <v>0.9333790317847697</v>
       </c>
     </row>
     <row r="31">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8636</v>
+        <v>9852</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04990091422280988</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1966300423106769</v>
+        <v>0.2243267469192112</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6685</v>
+        <v>7246</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08546881489458343</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2643404961315529</v>
+        <v>0.2865315234070673</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -2955,19 +2955,19 @@
         <v>4353</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1050</v>
+        <v>1063</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11316</v>
+        <v>12270</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0628978975552444</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01517440511375073</v>
+        <v>0.01536229460158336</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1635108995096941</v>
+        <v>0.177290452729844</v>
       </c>
     </row>
     <row r="6">
@@ -2984,7 +2984,7 @@
         <v>41726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35282</v>
+        <v>34066</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>43918</v>
@@ -2993,7 +2993,7 @@
         <v>0.9500990857771902</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8033699576893233</v>
+        <v>0.7756732530807878</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>23128</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18604</v>
+        <v>18043</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>25289</v>
@@ -3014,7 +3014,7 @@
         <v>0.9145311851054165</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7356595038684468</v>
+        <v>0.7134684765929329</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -3026,19 +3026,19 @@
         <v>64854</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>57891</v>
+        <v>56937</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>68157</v>
+        <v>68144</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9371021024447556</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8364891004903049</v>
+        <v>0.822709547270157</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9848255948862492</v>
+        <v>0.9846377053984167</v>
       </c>
     </row>
     <row r="7">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5634</v>
+        <v>5812</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05888893275096339</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.298069881508649</v>
+        <v>0.3074551670108447</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6377</v>
+        <v>6325</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01399566477830614</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08018119820021426</v>
+        <v>0.07952263411573232</v>
       </c>
     </row>
     <row r="9">
@@ -3193,19 +3193,19 @@
         <v>4281</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1097</v>
+        <v>1066</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10863</v>
+        <v>10007</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07061305563806039</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01809033112669997</v>
+        <v>0.01757891934097592</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1791741476220717</v>
+        <v>0.165043510132221</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5234</v>
+        <v>5299</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05888893275096339</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2768808383322872</v>
+        <v>0.2803617107668089</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -3235,19 +3235,19 @@
         <v>5394</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2122</v>
+        <v>2079</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12658</v>
+        <v>11501</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06782667649885291</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02667965421197162</v>
+        <v>0.02613655091592281</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1591537539480179</v>
+        <v>0.1446043950848464</v>
       </c>
     </row>
     <row r="10">
@@ -3264,19 +3264,19 @@
         <v>56349</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49767</v>
+        <v>50623</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59533</v>
+        <v>59564</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9293869443619396</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8208258523779287</v>
+        <v>0.8349564898677774</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9819096688733</v>
+        <v>0.9824210806590241</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3285,7 +3285,7 @@
         <v>16676</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12041</v>
+        <v>12471</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>18902</v>
@@ -3294,7 +3294,7 @@
         <v>0.8822221344980732</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6370216600902507</v>
+        <v>0.6597495168715917</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -3306,19 +3306,19 @@
         <v>73024</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65103</v>
+        <v>66455</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76501</v>
+        <v>77366</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.918177658722841</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8185844721972548</v>
+        <v>0.8355816892919561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9619059950028738</v>
+        <v>0.9727762325484151</v>
       </c>
     </row>
     <row r="11">
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5039</v>
+        <v>5035</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008361460976098214</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04246660188970451</v>
+        <v>0.04243359194911882</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6080</v>
+        <v>4993</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01859185261245946</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1113278954845284</v>
+        <v>0.09142930166964049</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6286</v>
+        <v>6175</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01158610708905356</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0362807236535232</v>
+        <v>0.03563796456656558</v>
       </c>
     </row>
     <row r="13">
@@ -3481,19 +3481,19 @@
         <v>6363</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2031</v>
+        <v>2066</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14597</v>
+        <v>15191</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05362632862927571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01711481958480672</v>
+        <v>0.01741071522139751</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.123018748710964</v>
+        <v>0.128029961878047</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3502,19 +3502,19 @@
         <v>4002</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9196</v>
+        <v>9436</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07327248252459119</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0189480125900847</v>
+        <v>0.0186186352211237</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1683713216808483</v>
+        <v>0.1727764286251414</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -3523,19 +3523,19 @@
         <v>10365</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5027</v>
+        <v>5232</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19667</v>
+        <v>19736</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05981884755180492</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02901456209836372</v>
+        <v>0.03019583781856897</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1135054435365216</v>
+        <v>0.1139016764991387</v>
       </c>
     </row>
     <row r="14">
@@ -3552,19 +3552,19 @@
         <v>111298</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102686</v>
+        <v>102763</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>115634</v>
+        <v>115765</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9380122103946261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8654287808098311</v>
+        <v>0.8660797025609354</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9745544232235698</v>
+        <v>0.9756637274012298</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -3573,19 +3573,19 @@
         <v>49598</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43692</v>
+        <v>43399</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52676</v>
+        <v>52660</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9081356648629494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8000055413289646</v>
+        <v>0.7946426476874711</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9644887007760438</v>
+        <v>0.9641985936382405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>143</v>
@@ -3594,19 +3594,19 @@
         <v>160896</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>151735</v>
+        <v>151228</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>167001</v>
+        <v>166243</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9285950453591415</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8757271160870852</v>
+        <v>0.8728000953617236</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9638311480299785</v>
+        <v>0.9594560174490031</v>
       </c>
     </row>
     <row r="15">
@@ -3698,19 +3698,19 @@
         <v>6318</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2157</v>
+        <v>2119</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12751</v>
+        <v>11720</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02726118686664699</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009305697848839563</v>
+        <v>0.009141522692436474</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05502097541189734</v>
+        <v>0.05057153029869751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6663</v>
+        <v>6634</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03566347670525461</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1108672232921253</v>
+        <v>0.1103893972785742</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -3740,19 +3740,19 @@
         <v>8461</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3239</v>
+        <v>4140</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15976</v>
+        <v>15238</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02899132497894912</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01109822394629115</v>
+        <v>0.01418459783878233</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05474048666777163</v>
+        <v>0.05221066784048583</v>
       </c>
     </row>
     <row r="17">
@@ -3769,19 +3769,19 @@
         <v>23595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14017</v>
+        <v>14563</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37225</v>
+        <v>37614</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1018123495840452</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06048364911510916</v>
+        <v>0.06283918130529241</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1606231755845986</v>
+        <v>0.1623013770931254</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -3790,19 +3790,19 @@
         <v>8596</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4165</v>
+        <v>4052</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15850</v>
+        <v>15487</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1430464427104203</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06931184491781632</v>
+        <v>0.06743153393346635</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2637487114462044</v>
+        <v>0.2577056255817322</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -3811,19 +3811,19 @@
         <v>32192</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21571</v>
+        <v>21766</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46654</v>
+        <v>44548</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1103029726659049</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07391229483041127</v>
+        <v>0.07458074071510049</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1598575046406232</v>
+        <v>0.1526413165509561</v>
       </c>
     </row>
     <row r="18">
@@ -3840,19 +3840,19 @@
         <v>201840</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>186851</v>
+        <v>188626</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>211807</v>
+        <v>212208</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8709264635493078</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8062490089575255</v>
+        <v>0.813909604742119</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9139347276268088</v>
+        <v>0.9156657868183347</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>47</v>
@@ -3861,19 +3861,19 @@
         <v>49355</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>42035</v>
+        <v>41889</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54624</v>
+        <v>54938</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8212900805843251</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6994811082667668</v>
+        <v>0.6970465897872293</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.908957793932693</v>
+        <v>0.9141913806472007</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>238</v>
@@ -3882,19 +3882,19 @@
         <v>251195</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>237446</v>
+        <v>238398</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>263724</v>
+        <v>262668</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.860705702355146</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8135941638869757</v>
+        <v>0.8168581892520347</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9036358697161934</v>
+        <v>0.9000167567473588</v>
       </c>
     </row>
     <row r="19">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7027</v>
+        <v>6354</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0197667911048966</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0684242824143983</v>
+        <v>0.06187103581610835</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -4007,19 +4007,19 @@
         <v>19746</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11865</v>
+        <v>11943</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28960</v>
+        <v>29169</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1048077569038813</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06297733890884878</v>
+        <v>0.06339011744800171</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1537136667105779</v>
+        <v>0.1548236458864727</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -4028,19 +4028,19 @@
         <v>21776</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13869</v>
+        <v>13583</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32366</v>
+        <v>32326</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07480616827761982</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04764413368868695</v>
+        <v>0.04666138726743298</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1111858122388883</v>
+        <v>0.1110493022203476</v>
       </c>
     </row>
     <row r="21">
@@ -4057,19 +4057,19 @@
         <v>8656</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4265</v>
+        <v>4254</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15087</v>
+        <v>15595</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0842890607753468</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04153026088694612</v>
+        <v>0.0414195319290838</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1469081818611756</v>
+        <v>0.1518558473037782</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -4078,19 +4078,19 @@
         <v>20374</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12927</v>
+        <v>12290</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30282</v>
+        <v>30120</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.108143678149793</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06861290065328926</v>
+        <v>0.06523412617198827</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1607307537897194</v>
+        <v>0.1598725402583532</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -4099,19 +4099,19 @@
         <v>29030</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19220</v>
+        <v>19994</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>39514</v>
+        <v>42026</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09972801152864146</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06602503548364105</v>
+        <v>0.06868369297105156</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1357429850880502</v>
+        <v>0.1443724698363782</v>
       </c>
     </row>
     <row r="22">
@@ -4128,19 +4128,19 @@
         <v>92010</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>84675</v>
+        <v>83481</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97186</v>
+        <v>97426</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8959441481197566</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8245245863190926</v>
+        <v>0.8128902989023795</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.946349593966864</v>
+        <v>0.9486808000692286</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>140</v>
@@ -4149,19 +4149,19 @@
         <v>148280</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>135121</v>
+        <v>135512</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>159058</v>
+        <v>158298</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7870485649463257</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7172001794156937</v>
+        <v>0.7192800889494038</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8442555089545202</v>
+        <v>0.8402237904625602</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>226</v>
@@ -4170,19 +4170,19 @@
         <v>240290</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>226751</v>
+        <v>226271</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>253855</v>
+        <v>253019</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8254658201937387</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7789559384994128</v>
+        <v>0.7773088123167206</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.872064878598792</v>
+        <v>0.8691955899072881</v>
       </c>
     </row>
     <row r="23">
@@ -4287,19 +4287,19 @@
         <v>22645</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13656</v>
+        <v>13797</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33934</v>
+        <v>33832</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05737319138415337</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03459778456903106</v>
+        <v>0.03495477393805079</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08597269337911671</v>
+        <v>0.08571557810681543</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>20</v>
@@ -4308,19 +4308,19 @@
         <v>22645</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15015</v>
+        <v>14193</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>34128</v>
+        <v>34872</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05708570865040157</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03785126787514645</v>
+        <v>0.03577798338512909</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08603060725687298</v>
+        <v>0.08790796929885182</v>
       </c>
     </row>
     <row r="25">
@@ -4350,19 +4350,19 @@
         <v>37611</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27287</v>
+        <v>27231</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50847</v>
+        <v>50747</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09528861172314373</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06913244348193523</v>
+        <v>0.06899055024637039</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1288224230095903</v>
+        <v>0.1285688769598112</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -4371,19 +4371,19 @@
         <v>37611</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26391</v>
+        <v>26631</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50730</v>
+        <v>50146</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09481114428699987</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06652866306090052</v>
+        <v>0.06713252264925691</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1278814095235862</v>
+        <v>0.1264116705759439</v>
       </c>
     </row>
     <row r="26">
@@ -4413,19 +4413,19 @@
         <v>334448</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>318483</v>
+        <v>317753</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>347288</v>
+        <v>347739</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8473381968927028</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8068916217076786</v>
+        <v>0.8050400761076756</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8798695740127784</v>
+        <v>0.8810126329093473</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>315</v>
@@ -4434,19 +4434,19 @@
         <v>336436</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>321337</v>
+        <v>320522</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>350610</v>
+        <v>349908</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8481031470625986</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8100406737861199</v>
+        <v>0.8079866074642521</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.883834899689439</v>
+        <v>0.8820648662368099</v>
       </c>
     </row>
     <row r="27">
@@ -4538,19 +4538,19 @@
         <v>9340</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4110</v>
+        <v>4442</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16122</v>
+        <v>17561</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01668928192883238</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007344443479776142</v>
+        <v>0.00793657209537881</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0288075253360286</v>
+        <v>0.03137932105173549</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>42</v>
@@ -4559,19 +4559,19 @@
         <v>46663</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34700</v>
+        <v>33569</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>62413</v>
+        <v>62625</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06288764106683943</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04676545333532838</v>
+        <v>0.04524152427065719</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08411353308042727</v>
+        <v>0.08439960864730268</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>51</v>
@@ -4580,19 +4580,19 @@
         <v>56003</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>42642</v>
+        <v>42940</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>71591</v>
+        <v>74157</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04302479671251268</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.032760138652858</v>
+        <v>0.03298901353225524</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05500042113483336</v>
+        <v>0.05697190564006657</v>
       </c>
     </row>
     <row r="29">
@@ -4609,19 +4609,19 @@
         <v>45087</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31532</v>
+        <v>32976</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>60545</v>
+        <v>61720</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08056499465765664</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05634292766091453</v>
+        <v>0.0589234341245168</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1081855025953456</v>
+        <v>0.1102855147548584</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>69</v>
@@ -4630,19 +4630,19 @@
         <v>73858</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>59014</v>
+        <v>59354</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>91312</v>
+        <v>92358</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09953814280892061</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07953254381020296</v>
+        <v>0.07999105176409685</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.123061308539373</v>
+        <v>0.12447046566079</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>105</v>
@@ -4651,19 +4651,19 @@
         <v>118945</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>98099</v>
+        <v>97316</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>143262</v>
+        <v>142653</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09138069532221761</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0753652627017101</v>
+        <v>0.07476396067949173</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1100624755971511</v>
+        <v>0.1095947522648372</v>
       </c>
     </row>
     <row r="30">
@@ -4680,19 +4680,19 @@
         <v>505210</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>488697</v>
+        <v>488107</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>519736</v>
+        <v>518090</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.902745723413511</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8732386758232763</v>
+        <v>0.8721853117917192</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9287026310801871</v>
+        <v>0.9257599764123234</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>582</v>
@@ -4701,19 +4701,19 @@
         <v>621484</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>601300</v>
+        <v>599859</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>641385</v>
+        <v>641024</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.83757421612424</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8103716066254696</v>
+        <v>0.8084302005588095</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8643946838213383</v>
+        <v>0.8639074486023907</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1041</v>
@@ -4722,19 +4722,19 @@
         <v>1126694</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1097206</v>
+        <v>1099964</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1150337</v>
+        <v>1151838</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8655945079652697</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8429396297795783</v>
+        <v>0.8450585086840912</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8837587278810298</v>
+        <v>0.8849118901615297</v>
       </c>
     </row>
     <row r="31">
@@ -5115,19 +5115,19 @@
         <v>5078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1033</v>
+        <v>1514</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12147</v>
+        <v>12609</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07397155678789609</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0150544528194411</v>
+        <v>0.02205145597163557</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1769515416828385</v>
+        <v>0.183684606975091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -5136,19 +5136,19 @@
         <v>4876</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1277</v>
+        <v>1349</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10668</v>
+        <v>10806</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1321799014562204</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03462212925060246</v>
+        <v>0.03655810379259801</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2891992487634196</v>
+        <v>0.2929371444498084</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -5157,19 +5157,19 @@
         <v>9954</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4281</v>
+        <v>4148</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17928</v>
+        <v>18270</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09431742583145016</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04056252107997347</v>
+        <v>0.03930916147036545</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1698744195618991</v>
+        <v>0.1731223441210712</v>
       </c>
     </row>
     <row r="6">
@@ -5186,19 +5186,19 @@
         <v>63569</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56500</v>
+        <v>56038</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67614</v>
+        <v>67133</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9260284432121039</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8230484583171616</v>
+        <v>0.8163153930249085</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9849455471805589</v>
+        <v>0.9779485440283644</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -5207,19 +5207,19 @@
         <v>32012</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26220</v>
+        <v>26082</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35611</v>
+        <v>35539</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8678200985437796</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7108007512365804</v>
+        <v>0.7070628555501921</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9653778707493975</v>
+        <v>0.9634418962074021</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>88</v>
@@ -5228,19 +5228,19 @@
         <v>95581</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>87607</v>
+        <v>87265</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>101254</v>
+        <v>101387</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9056825741685498</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.830125580438101</v>
+        <v>0.8268776558789293</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9594374789200267</v>
+        <v>0.9606908385296345</v>
       </c>
     </row>
     <row r="7">
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8725</v>
+        <v>7820</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1214755811957854</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4960913088780763</v>
+        <v>0.444611981333473</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11236</v>
+        <v>10217</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03012081198205652</v>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1584108710272491</v>
+        <v>0.1440348199147662</v>
       </c>
     </row>
     <row r="9">
@@ -5395,19 +5395,19 @@
         <v>2799</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>838</v>
+        <v>874</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6904</v>
+        <v>7035</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05246713948687766</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0157053571041359</v>
+        <v>0.01639265504916095</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1294306629985299</v>
+        <v>0.1318768135729775</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5454</v>
+        <v>6024</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06288068276051195</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3100863350649329</v>
+        <v>0.3424949033436834</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -5437,19 +5437,19 @@
         <v>3905</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>940</v>
+        <v>1022</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9284</v>
+        <v>9157</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05504925826272123</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01325220524692875</v>
+        <v>0.01440375701216644</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1308794953249452</v>
+        <v>0.1290901443900777</v>
       </c>
     </row>
     <row r="10">
@@ -5466,19 +5466,19 @@
         <v>50545</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46440</v>
+        <v>46309</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52506</v>
+        <v>52470</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9475328605131224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8705693370014682</v>
+        <v>0.8681231864270244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9842946428958641</v>
+        <v>0.983607344950839</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -5487,7 +5487,7 @@
         <v>14346</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8700</v>
+        <v>8826</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>17588</v>
@@ -5496,7 +5496,7 @@
         <v>0.8156437360437027</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.494640784890624</v>
+        <v>0.5018177606961817</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -5508,19 +5508,19 @@
         <v>64891</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56751</v>
+        <v>57786</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68803</v>
+        <v>68929</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9148299297552223</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8000792904931342</v>
+        <v>0.8146699496264191</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9699860285428871</v>
+        <v>0.9717635944597833</v>
       </c>
     </row>
     <row r="11">
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5851</v>
+        <v>5916</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01417789872306667</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04865400063561302</v>
+        <v>0.04919116127681723</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5276</v>
+        <v>6080</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01024238585253409</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03169541916150122</v>
+        <v>0.03652415220061399</v>
       </c>
     </row>
     <row r="13">
@@ -5675,19 +5675,19 @@
         <v>6161</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2572</v>
+        <v>2997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12647</v>
+        <v>12622</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05123164844690101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02138979480524621</v>
+        <v>0.02491700584678764</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1051636884645777</v>
+        <v>0.1049574610682494</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -5696,19 +5696,19 @@
         <v>4598</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1123</v>
+        <v>1233</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10112</v>
+        <v>10790</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09949880391713795</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02430444831320033</v>
+        <v>0.02668111289917907</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.218840070935378</v>
+        <v>0.233497960589416</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -5717,19 +5717,19 @@
         <v>10759</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5462</v>
+        <v>5502</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18171</v>
+        <v>17926</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0646296854400745</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03280919576464034</v>
+        <v>0.03305277651470392</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1091555865906863</v>
+        <v>0.1076837011043408</v>
       </c>
     </row>
     <row r="14">
@@ -5746,19 +5746,19 @@
         <v>112395</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106309</v>
+        <v>105867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116367</v>
+        <v>116144</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9345904528300323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8839857846615466</v>
+        <v>0.8803108208727556</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9676180144443906</v>
+        <v>0.965762617110792</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -5767,19 +5767,19 @@
         <v>41611</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36097</v>
+        <v>35419</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45086</v>
+        <v>44976</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9005011960828621</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7811599290646218</v>
+        <v>0.766502039410584</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9756955516867996</v>
+        <v>0.9733188871008209</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>152</v>
@@ -5788,19 +5788,19 @@
         <v>154006</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>146716</v>
+        <v>146341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>159560</v>
+        <v>159647</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9251279287073915</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8813383080581783</v>
+        <v>0.8790815938939319</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.958493260944186</v>
+        <v>0.9590128825762203</v>
       </c>
     </row>
     <row r="15">
@@ -5892,19 +5892,19 @@
         <v>3592</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>962</v>
+        <v>842</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8882</v>
+        <v>8833</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01761885179739898</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004718292848478705</v>
+        <v>0.004128249922640616</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04357103030352475</v>
+        <v>0.04333005599098644</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -5913,19 +5913,19 @@
         <v>6165</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2395</v>
+        <v>2342</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13555</v>
+        <v>13007</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06224392076987774</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02418294095861881</v>
+        <v>0.02364858846243066</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1368603401381707</v>
+        <v>0.1313264070938575</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -5934,19 +5934,19 @@
         <v>9757</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5102</v>
+        <v>5081</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17323</v>
+        <v>17695</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03221082482707841</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01684286805575608</v>
+        <v>0.01677319382173013</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0571904098220976</v>
+        <v>0.05841869687876701</v>
       </c>
     </row>
     <row r="17">
@@ -5963,19 +5963,19 @@
         <v>13918</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8298</v>
+        <v>8332</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22326</v>
+        <v>22571</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06827312320807168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04070642979987821</v>
+        <v>0.04087293584068642</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1095186662434129</v>
+        <v>0.1107222448274435</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -5984,19 +5984,19 @@
         <v>8623</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3350</v>
+        <v>3669</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16630</v>
+        <v>18264</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08706295230646258</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03381875303935373</v>
+        <v>0.03704142182858343</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1679057389032761</v>
+        <v>0.1844033306704988</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -6005,19 +6005,19 @@
         <v>22541</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14545</v>
+        <v>14181</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34080</v>
+        <v>33220</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07441721857305809</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04801866894794676</v>
+        <v>0.04681819516842983</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1125100927569842</v>
+        <v>0.1096713157502933</v>
       </c>
     </row>
     <row r="18">
@@ -6034,19 +6034,19 @@
         <v>186346</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>177478</v>
+        <v>176950</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>192590</v>
+        <v>192947</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9141080249945294</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8706040186454607</v>
+        <v>0.8680145709576672</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9447365383788531</v>
+        <v>0.9464857924868155</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>73</v>
@@ -6055,19 +6055,19 @@
         <v>84258</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74287</v>
+        <v>73949</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>91005</v>
+        <v>90953</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8506931269236597</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7500247470279012</v>
+        <v>0.7466093650799086</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9188175850682537</v>
+        <v>0.9182862289361572</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>271</v>
@@ -6076,19 +6076,19 @@
         <v>270604</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>257985</v>
+        <v>259416</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>281116</v>
+        <v>281376</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8933719565998635</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.851711397895021</v>
+        <v>0.8564360801551802</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9280757411169828</v>
+        <v>0.9289337753972466</v>
       </c>
     </row>
     <row r="19">
@@ -6180,19 +6180,19 @@
         <v>3546</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8030</v>
+        <v>8393</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02442066275290787</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00612547467302707</v>
+        <v>0.006172004093524386</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0552972241816437</v>
+        <v>0.05779674232846656</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -6201,19 +6201,19 @@
         <v>6255</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2274</v>
+        <v>2479</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13638</v>
+        <v>13519</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03920533212392102</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01425388125904366</v>
+        <v>0.01553881809409672</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08547601723185934</v>
+        <v>0.08472965927087993</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -6222,19 +6222,19 @@
         <v>9802</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4761</v>
+        <v>4825</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17640</v>
+        <v>18364</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03216056418406319</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01562107006339192</v>
+        <v>0.01583089885703189</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05788046818347087</v>
+        <v>0.06025531081406627</v>
       </c>
     </row>
     <row r="21">
@@ -6251,19 +6251,19 @@
         <v>13089</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7564</v>
+        <v>7240</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20658</v>
+        <v>20669</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09013225058354916</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05208623980107561</v>
+        <v>0.04985443383402607</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.142253163874083</v>
+        <v>0.1423262587571595</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -6272,19 +6272,19 @@
         <v>15851</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8987</v>
+        <v>8856</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25614</v>
+        <v>25146</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09935079124091686</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05632455211905461</v>
+        <v>0.05550357482619016</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1605377382459643</v>
+        <v>0.157606478313578</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -6293,19 +6293,19 @@
         <v>28941</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19509</v>
+        <v>19439</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>38661</v>
+        <v>40782</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09495823581437306</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06401103225517953</v>
+        <v>0.06378150271072967</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1268537427519862</v>
+        <v>0.1338124002090745</v>
       </c>
     </row>
     <row r="22">
@@ -6322,19 +6322,19 @@
         <v>128586</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>120567</v>
+        <v>120328</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>134699</v>
+        <v>134853</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.885447086663543</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8302336769595795</v>
+        <v>0.8285843093191064</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9275477115255196</v>
+        <v>0.9286033140478033</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>120</v>
@@ -6343,19 +6343,19 @@
         <v>137443</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>126595</v>
+        <v>126651</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>145410</v>
+        <v>145734</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8614438766351621</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7934474454779833</v>
+        <v>0.7938041956765424</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9113753660606526</v>
+        <v>0.9134091581367553</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>260</v>
@@ -6364,19 +6364,19 @@
         <v>266029</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>253855</v>
+        <v>254040</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>277835</v>
+        <v>277445</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8728812000015638</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8329369732179586</v>
+        <v>0.8335426496573116</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9116173914445216</v>
+        <v>0.9103406266450313</v>
       </c>
     </row>
     <row r="23">
@@ -6477,19 +6477,19 @@
         <v>19918</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11640</v>
+        <v>11773</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31313</v>
+        <v>32031</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04821676525182652</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02817919474107534</v>
+        <v>0.02849930704584371</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07580291422239405</v>
+        <v>0.07754165825161677</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -6498,19 +6498,19 @@
         <v>19918</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11640</v>
+        <v>11773</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31313</v>
+        <v>32031</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04821676525182652</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02817919474107534</v>
+        <v>0.02849930704584371</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07580291422239405</v>
+        <v>0.07754165825161677</v>
       </c>
     </row>
     <row r="25">
@@ -6536,19 +6536,19 @@
         <v>41391</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29612</v>
+        <v>30374</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55229</v>
+        <v>57018</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1002000900135895</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07168631471806494</v>
+        <v>0.07353115696054109</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1337004749351524</v>
+        <v>0.1380311447372209</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -6557,19 +6557,19 @@
         <v>41391</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29612</v>
+        <v>30374</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55229</v>
+        <v>57018</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1002000900135895</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07168631471806494</v>
+        <v>0.07353115696054109</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1337004749351524</v>
+        <v>0.1380311447372209</v>
       </c>
     </row>
     <row r="26">
@@ -6595,19 +6595,19 @@
         <v>351775</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>334881</v>
+        <v>333338</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>366529</v>
+        <v>366309</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.851583144734584</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8106873633655828</v>
+        <v>0.8069517775662888</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8873002239273285</v>
+        <v>0.8867695488060076</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>296</v>
@@ -6616,19 +6616,19 @@
         <v>351775</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>334881</v>
+        <v>333338</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>366529</v>
+        <v>366309</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.851583144734584</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8106873633655828</v>
+        <v>0.8069517775662888</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8873002239273285</v>
+        <v>0.8867695488060076</v>
       </c>
     </row>
     <row r="27">
@@ -6708,19 +6708,19 @@
         <v>8843</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4480</v>
+        <v>4372</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15795</v>
+        <v>15683</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01495470641487596</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007575407843974814</v>
+        <v>0.007392828858667606</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02671104844607229</v>
+        <v>0.02652089315223238</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -6729,19 +6729,19 @@
         <v>34474</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23182</v>
+        <v>23288</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>49314</v>
+        <v>49798</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04463473701573009</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03001490667992593</v>
+        <v>0.03015181916298604</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06384764616417023</v>
+        <v>0.06447518348813715</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>37</v>
@@ -6750,19 +6750,19 @@
         <v>43317</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>32350</v>
+        <v>30677</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>59594</v>
+        <v>58469</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03176479752406134</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0237220257625645</v>
+        <v>0.02249550131920982</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04370046007303394</v>
+        <v>0.04287546453513531</v>
       </c>
     </row>
     <row r="29">
@@ -6779,19 +6779,19 @@
         <v>41045</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>30598</v>
+        <v>30306</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>53936</v>
+        <v>53955</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06941123842099924</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05174375981291721</v>
+        <v>0.05125157188660934</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09121230182687656</v>
+        <v>0.0912444786681717</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>64</v>
@@ -6800,19 +6800,19 @@
         <v>76445</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>60831</v>
+        <v>59762</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>95302</v>
+        <v>95008</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09897554853557616</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07875973877316689</v>
+        <v>0.07737547186803817</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1233894420799791</v>
+        <v>0.1230090298222276</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>109</v>
@@ -6821,19 +6821,19 @@
         <v>117490</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>97384</v>
+        <v>98420</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>141602</v>
+        <v>142274</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08615578809110459</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07141168184037379</v>
+        <v>0.07217136199656811</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1038371707373363</v>
+        <v>0.1043297748024537</v>
       </c>
     </row>
     <row r="30">
@@ -6850,19 +6850,19 @@
         <v>541440</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>527953</v>
+        <v>527034</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>553587</v>
+        <v>553530</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9156340551641248</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8928253176804795</v>
+        <v>0.8912717610633824</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9361757575262215</v>
+        <v>0.9360795462311947</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>559</v>
@@ -6871,19 +6871,19 @@
         <v>661445</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>638178</v>
+        <v>637991</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>681734</v>
+        <v>681299</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8563897144486937</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8262656131749101</v>
+        <v>0.8260233230572481</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8826584453855411</v>
+        <v>0.8820959310863076</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1131</v>
@@ -6892,19 +6892,19 @@
         <v>1202885</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1173560</v>
+        <v>1177196</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1224193</v>
+        <v>1226333</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8820794143848341</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8605752874504126</v>
+        <v>0.8632421247308599</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8977049244992561</v>
+        <v>0.8992743830341728</v>
       </c>
     </row>
     <row r="31">
@@ -7238,19 +7238,19 @@
         <v>2090</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4997</v>
+        <v>4939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01735954246661541</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004997876775239745</v>
+        <v>0.004175973557695467</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04150705931214075</v>
+        <v>0.04101968903571111</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3089</v>
+        <v>4106</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01003403935011773</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04142575412849898</v>
+        <v>0.05506711768443775</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -7280,19 +7280,19 @@
         <v>2838</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6453</v>
+        <v>6652</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01455803427349592</v>
+        <v>0.01455803427349591</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005045946681707394</v>
+        <v>0.005007296357229236</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03310067736890656</v>
+        <v>0.03412003515441269</v>
       </c>
     </row>
     <row r="5">
@@ -7309,19 +7309,19 @@
         <v>8155</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4192</v>
+        <v>4232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14235</v>
+        <v>14027</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06773372424579115</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03481913705721713</v>
+        <v>0.03514971456161434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1182320700999338</v>
+        <v>0.1165037077327712</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -7330,19 +7330,19 @@
         <v>7119</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3792</v>
+        <v>4198</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11528</v>
+        <v>12186</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09548402148591664</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0508558155786128</v>
+        <v>0.05629889752414646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1546164234939936</v>
+        <v>0.1634406896891682</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -7351,19 +7351,19 @@
         <v>15274</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9955</v>
+        <v>9634</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22375</v>
+        <v>21795</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07834633116757779</v>
+        <v>0.07834633116757778</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0510599365424502</v>
+        <v>0.04941508469798726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1147656240850552</v>
+        <v>0.111790011301586</v>
       </c>
     </row>
     <row r="6">
@@ -7380,19 +7380,19 @@
         <v>110156</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>104157</v>
+        <v>103949</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114582</v>
+        <v>114638</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9149067332875934</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.865080777321652</v>
+        <v>0.8633545438431917</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9516676202875809</v>
+        <v>0.9521344010214362</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>119</v>
@@ -7401,19 +7401,19 @@
         <v>66692</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>61958</v>
+        <v>61526</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70441</v>
+        <v>69971</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8944819391639658</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8309899495762478</v>
+        <v>0.8252040247757769</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9447658307908321</v>
+        <v>0.9384711406803756</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>275</v>
@@ -7422,19 +7422,19 @@
         <v>176847</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>169735</v>
+        <v>169588</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>182855</v>
+        <v>182603</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9070956345589263</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8706159463782087</v>
+        <v>0.8698591884781752</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9379084005964226</v>
+        <v>0.9366162827294297</v>
       </c>
     </row>
     <row r="7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3886</v>
+        <v>3408</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01024653804263028</v>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03711244836822578</v>
+        <v>0.03254941286459331</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3608</v>
+        <v>3551</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01884466212286112</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06514372872217604</v>
+        <v>0.06411461051128677</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -7568,19 +7568,19 @@
         <v>2117</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5065</v>
+        <v>5153</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01322096210916397</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003635236545630435</v>
+        <v>0.00365950371924669</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03163885527726714</v>
+        <v>0.03218655601998637</v>
       </c>
     </row>
     <row r="9">
@@ -7597,19 +7597,19 @@
         <v>5071</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2087</v>
+        <v>1864</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9811</v>
+        <v>9989</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04842295403673982</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01993115385688339</v>
+        <v>0.01779907223189373</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09369325872342661</v>
+        <v>0.09539627915643063</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -7618,19 +7618,19 @@
         <v>5739</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3075</v>
+        <v>2938</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9930</v>
+        <v>10120</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1036264348857637</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05552373965389933</v>
+        <v>0.05305035113782453</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1792942341510705</v>
+        <v>0.1827142639129546</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -7639,19 +7639,19 @@
         <v>10810</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6628</v>
+        <v>6725</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16763</v>
+        <v>17194</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.06751997571979511</v>
+        <v>0.06751997571979512</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04140120598562496</v>
+        <v>0.04200767416878029</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1047009143421755</v>
+        <v>0.1073945998711797</v>
       </c>
     </row>
     <row r="10">
@@ -7668,19 +7668,19 @@
         <v>98571</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93785</v>
+        <v>93017</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101913</v>
+        <v>102079</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.94133050792063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8956235426640952</v>
+        <v>0.8882853854760768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9732444859341184</v>
+        <v>0.9748243949697258</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -7689,19 +7689,19 @@
         <v>48602</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44546</v>
+        <v>44223</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51758</v>
+        <v>51565</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8775289029913752</v>
+        <v>0.8775289029913753</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.804292436685162</v>
+        <v>0.7984593016065735</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.934506871290981</v>
+        <v>0.9310298073773974</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -7710,19 +7710,19 @@
         <v>147173</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>141110</v>
+        <v>140430</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151811</v>
+        <v>151633</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9192590621710406</v>
+        <v>0.9192590621710409</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8813855828851597</v>
+        <v>0.8771393461346201</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9482250792621099</v>
+        <v>0.9471151568529641</v>
       </c>
     </row>
     <row r="11">
@@ -7814,19 +7814,19 @@
         <v>2506</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6125</v>
+        <v>6024</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02227770741781495</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005805317588262687</v>
+        <v>0.005836928485585944</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05445869759682606</v>
+        <v>0.05356272846580971</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -7835,19 +7835,19 @@
         <v>2960</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1129</v>
+        <v>1257</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6157</v>
+        <v>6190</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.05106394995243142</v>
+        <v>0.05106394995243141</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01947988675623368</v>
+        <v>0.02167638782283552</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1062141899065234</v>
+        <v>0.1067758864765234</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -7856,19 +7856,19 @@
         <v>5466</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2642</v>
+        <v>2559</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10060</v>
+        <v>10008</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03206845353006974</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01550219800304232</v>
+        <v>0.01501554553273282</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05902177372203007</v>
+        <v>0.05871675509140595</v>
       </c>
     </row>
     <row r="13">
@@ -7885,19 +7885,19 @@
         <v>13657</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8747</v>
+        <v>8388</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21065</v>
+        <v>19940</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1214235483665796</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07776855880988102</v>
+        <v>0.07457826367778453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1872911010678914</v>
+        <v>0.1772891633035378</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -7906,19 +7906,19 @@
         <v>5390</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2543</v>
+        <v>2621</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10358</v>
+        <v>10719</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09298536000373983</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04387020971585757</v>
+        <v>0.0452206724496796</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1786778424265654</v>
+        <v>0.1849102910300773</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -7927,19 +7927,19 @@
         <v>19047</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13211</v>
+        <v>13119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27710</v>
+        <v>27043</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1117511820680528</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0775081697548915</v>
+        <v>0.07697273975606109</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1625755183096971</v>
+        <v>0.1586673440687351</v>
       </c>
     </row>
     <row r="14">
@@ -7956,19 +7956,19 @@
         <v>96309</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88894</v>
+        <v>90090</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101191</v>
+        <v>102161</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8562987442156054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7903709657093677</v>
+        <v>0.8010086565680161</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8997053337685702</v>
+        <v>0.9083300175869825</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>92</v>
@@ -7977,19 +7977,19 @@
         <v>49619</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44365</v>
+        <v>44239</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52977</v>
+        <v>53240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8559506900438288</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7653067142813</v>
+        <v>0.7631314436820729</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.913875120246327</v>
+        <v>0.9184100736367958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>231</v>
@@ -7998,19 +7998,19 @@
         <v>145928</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>137284</v>
+        <v>137130</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152697</v>
+        <v>152040</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8561803644018775</v>
+        <v>0.8561803644018774</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8054647679021875</v>
+        <v>0.8045613072654293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8958928616061569</v>
+        <v>0.8920379190994985</v>
       </c>
     </row>
     <row r="15">
@@ -8102,19 +8102,19 @@
         <v>7140</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3569</v>
+        <v>3580</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12474</v>
+        <v>12630</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02753042096576504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01376301124986454</v>
+        <v>0.0138039190450822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04809567199478967</v>
+        <v>0.04869999849072273</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -8123,19 +8123,19 @@
         <v>4179</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1857</v>
+        <v>2130</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7575</v>
+        <v>7830</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0320790845592879</v>
+        <v>0.03207908455928791</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01425435839321778</v>
+        <v>0.01635016835767884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05815447556323942</v>
+        <v>0.06010868230404952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -8144,19 +8144,19 @@
         <v>11319</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7347</v>
+        <v>7344</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17723</v>
+        <v>17780</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02905122102694951</v>
+        <v>0.02905122102694952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01885702607414255</v>
+        <v>0.01884944738488263</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04548868328104985</v>
+        <v>0.04563552917284634</v>
       </c>
     </row>
     <row r="17">
@@ -8173,19 +8173,19 @@
         <v>19597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13219</v>
+        <v>13019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28083</v>
+        <v>27729</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07556276030779673</v>
+        <v>0.07556276030779671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05097035279586206</v>
+        <v>0.05019947736759704</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1082806714539604</v>
+        <v>0.1069169775718097</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -8194,19 +8194,19 @@
         <v>12203</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8369</v>
+        <v>8024</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17341</v>
+        <v>17488</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.0936756943368625</v>
+        <v>0.09367569433686246</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06424280339588002</v>
+        <v>0.06159603552542877</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1331207671582672</v>
+        <v>0.1342521490384163</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>52</v>
@@ -8215,19 +8215,19 @@
         <v>31800</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23928</v>
+        <v>23509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>40675</v>
+        <v>40769</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08161863817461859</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06141515420754017</v>
+        <v>0.06033858196104465</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1043980993994049</v>
+        <v>0.1046380161950697</v>
       </c>
     </row>
     <row r="18">
@@ -8244,19 +8244,19 @@
         <v>232615</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>224240</v>
+        <v>223823</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>240909</v>
+        <v>240369</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8969068187264383</v>
+        <v>0.8969068187264382</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8646139723677233</v>
+        <v>0.8630055771862787</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9288857739031546</v>
+        <v>0.9268038116023852</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>225</v>
@@ -8265,19 +8265,19 @@
         <v>113884</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>108539</v>
+        <v>108141</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>118202</v>
+        <v>118676</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8742452211038497</v>
+        <v>0.8742452211038496</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8332144161300101</v>
+        <v>0.8301651001690711</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.907399925651455</v>
+        <v>0.9110347891772513</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>555</v>
@@ -8286,19 +8286,19 @@
         <v>346499</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>336659</v>
+        <v>336295</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>355813</v>
+        <v>355574</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8893301407984319</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8640740467947562</v>
+        <v>0.8631409214635014</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9132358951045978</v>
+        <v>0.9126212648238895</v>
       </c>
     </row>
     <row r="19">
@@ -8390,19 +8390,19 @@
         <v>3705</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1620</v>
+        <v>1412</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7161</v>
+        <v>7025</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03675593199248372</v>
+        <v>0.03675593199248373</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01607187347202449</v>
+        <v>0.01400400009718403</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07104759089125565</v>
+        <v>0.06969778300133134</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -8411,19 +8411,19 @@
         <v>9415</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5702</v>
+        <v>5769</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14105</v>
+        <v>14461</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04274607820243081</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0258911261117181</v>
+        <v>0.02619476917979197</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06404290867055258</v>
+        <v>0.06565705437438667</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -8432,19 +8432,19 @@
         <v>13119</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8452</v>
+        <v>8632</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18990</v>
+        <v>19109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04086540234929238</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0263277936991388</v>
+        <v>0.02688869165792972</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05915253973718929</v>
+        <v>0.05952268353939932</v>
       </c>
     </row>
     <row r="21">
@@ -8461,19 +8461,19 @@
         <v>8370</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4473</v>
+        <v>4590</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13854</v>
+        <v>14336</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08304492997315989</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04437837582790955</v>
+        <v>0.04554258863176985</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.137445891466867</v>
+        <v>0.1422297066981247</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>60</v>
@@ -8482,19 +8482,19 @@
         <v>31409</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24137</v>
+        <v>24826</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39162</v>
+        <v>38779</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1426120046799335</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.109591125645301</v>
+        <v>0.1127213330442655</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1778111416606186</v>
+        <v>0.1760741667829045</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>73</v>
@@ -8503,19 +8503,19 @@
         <v>39780</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>31709</v>
+        <v>31225</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>49462</v>
+        <v>49322</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.123910230947417</v>
+        <v>0.1239102309474169</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0987690276337005</v>
+        <v>0.09726163758038479</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.154069870828326</v>
+        <v>0.1536332658038995</v>
       </c>
     </row>
     <row r="22">
@@ -8532,19 +8532,19 @@
         <v>88718</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>83068</v>
+        <v>82162</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93413</v>
+        <v>92984</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8801991380343562</v>
+        <v>0.8801991380343565</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8241431502310387</v>
+        <v>0.8151532910428277</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9267828745483933</v>
+        <v>0.9225251713587891</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>364</v>
@@ -8553,19 +8553,19 @@
         <v>179420</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>171621</v>
+        <v>171166</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>187971</v>
+        <v>187673</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8146419171176357</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7792334499619873</v>
+        <v>0.7771670445327648</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8534686794451286</v>
+        <v>0.8521143443457883</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>492</v>
@@ -8574,19 +8574,19 @@
         <v>268138</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>257551</v>
+        <v>257541</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>277343</v>
+        <v>277711</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8352243667032906</v>
+        <v>0.8352243667032904</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8022479709242168</v>
+        <v>0.802214983671928</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8638968992018475</v>
+        <v>0.86504444679445</v>
       </c>
     </row>
     <row r="23">
@@ -8681,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2364</v>
+        <v>2348</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3603506700100866</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7216154690530149</v>
+        <v>0.7167320982215601</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>41</v>
@@ -8699,19 +8699,19 @@
         <v>25690</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18648</v>
+        <v>18887</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33967</v>
+        <v>35493</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07442598365190982</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05402334396559008</v>
+        <v>0.05471647856376915</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09840522398024557</v>
+        <v>0.1028268246723035</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>43</v>
@@ -8720,19 +8720,19 @@
         <v>26871</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19735</v>
+        <v>19848</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>35675</v>
+        <v>35485</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07711426755257959</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05663735350635452</v>
+        <v>0.05696095023426013</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1023823807436328</v>
+        <v>0.1018361557609337</v>
       </c>
     </row>
     <row r="25">
@@ -8762,19 +8762,19 @@
         <v>42228</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34059</v>
+        <v>33469</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52704</v>
+        <v>51650</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1223392567147186</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09867192929940494</v>
+        <v>0.09696113327474057</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1526867222062921</v>
+        <v>0.1496343693407652</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>76</v>
@@ -8783,19 +8783,19 @@
         <v>42228</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34278</v>
+        <v>34144</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>51631</v>
+        <v>53073</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1211890144658416</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09837133845494979</v>
+        <v>0.09798837277100851</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1481715119026307</v>
+        <v>0.1523122736791497</v>
       </c>
     </row>
     <row r="26">
@@ -8812,7 +8812,7 @@
         <v>2095</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>911</v>
+        <v>924</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>3276</v>
@@ -8821,7 +8821,7 @@
         <v>0.6396493299899134</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2782277496168285</v>
+        <v>0.2820512522067876</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -8833,19 +8833,19 @@
         <v>277257</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>264825</v>
+        <v>265215</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>287755</v>
+        <v>288186</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8032347596333717</v>
+        <v>0.8032347596333715</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7672190231322472</v>
+        <v>0.7683486660914431</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8336503702458693</v>
+        <v>0.8348989417930855</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>522</v>
@@ -8854,19 +8854,19 @@
         <v>279352</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>267674</v>
+        <v>267616</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>290054</v>
+        <v>291110</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8016967179815789</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.768183763990445</v>
+        <v>0.7680160689398707</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8324107847481446</v>
+        <v>0.8354402798224259</v>
       </c>
     </row>
     <row r="27">
@@ -8958,19 +8958,19 @@
         <v>17694</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11497</v>
+        <v>11503</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24741</v>
+        <v>24906</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02524085586752667</v>
+        <v>0.02524085586752666</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01640066808690286</v>
+        <v>0.01640891968876382</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03529272505632927</v>
+        <v>0.03552901110577605</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>78</v>
@@ -8979,19 +8979,19 @@
         <v>44035</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>35139</v>
+        <v>35001</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>55839</v>
+        <v>55220</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04983641219935475</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03976795676851035</v>
+        <v>0.03961165466667232</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06319555599580325</v>
+        <v>0.0624950456811727</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>109</v>
@@ -9000,19 +9000,19 @@
         <v>61729</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>50771</v>
+        <v>51995</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>75332</v>
+        <v>75565</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03895565438498177</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03203986867837261</v>
+        <v>0.03281270936034999</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04753986376767182</v>
+        <v>0.04768716322234554</v>
       </c>
     </row>
     <row r="29">
@@ -9029,19 +9029,19 @@
         <v>54850</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>44399</v>
+        <v>43548</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>67191</v>
+        <v>67434</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.07824465200116636</v>
+        <v>0.07824465200116634</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06333557873946682</v>
+        <v>0.06212150121870742</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09584851051158678</v>
+        <v>0.09619594139179727</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>190</v>
@@ -9050,19 +9050,19 @@
         <v>104089</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>89432</v>
+        <v>90434</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>117950</v>
+        <v>118931</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1178018233569629</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1012139872839677</v>
+        <v>0.1023473355241841</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1334880905661955</v>
+        <v>0.1345989308860153</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>270</v>
@@ -9071,19 +9071,19 @@
         <v>158940</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>139082</v>
+        <v>140988</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>177034</v>
+        <v>178507</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1003022394672057</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0877702939304644</v>
+        <v>0.08897369978230468</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.111721070436236</v>
+        <v>0.112650504322342</v>
       </c>
     </row>
     <row r="30">
@@ -9100,19 +9100,19 @@
         <v>628466</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>614901</v>
+        <v>613958</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>641241</v>
+        <v>640844</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8965144921313071</v>
+        <v>0.896514492131307</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8771637810264422</v>
+        <v>0.8758194897172061</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9147391792828972</v>
+        <v>0.9141730040109168</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1404</v>
@@ -9121,19 +9121,19 @@
         <v>735473</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>718709</v>
+        <v>718186</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>752749</v>
+        <v>751561</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.8323617644436824</v>
+        <v>0.8323617644436825</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8133887608263822</v>
+        <v>0.8127967271770213</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8519136100209347</v>
+        <v>0.85056899851363</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2299</v>
@@ -9142,19 +9142,19 @@
         <v>1363939</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1343399</v>
+        <v>1342199</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1386995</v>
+        <v>1385062</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8607421061478125</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8477802807738836</v>
+        <v>0.8470226650101719</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8752923642681392</v>
+        <v>0.8740724530425011</v>
       </c>
     </row>
     <row r="31">
